--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -61,7 +61,7 @@
     <t>default for init plugins</t>
   </si>
   <si>
-    <t>f92836cce3834230b565fdf9e409dfe9</t>
+    <t>2decb021393841eeb7c6b59c8bb983d7</t>
   </si>
   <si>
     <t>RewardedVideo</t>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +102,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -116,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -124,14 +139,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,27 +223,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,69 +238,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,181 +260,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,34 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,6 +496,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -537,105 +531,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,52 +644,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -73,7 +73,19 @@
     <t>复活</t>
   </si>
   <si>
-    <t>lift</t>
+    <t>life</t>
+  </si>
+  <si>
+    <t>revive_interstitial</t>
+  </si>
+  <si>
+    <t>复活插屏</t>
+  </si>
+  <si>
+    <t>d08a98e6dbce462d843570b4fb350536</t>
+  </si>
+  <si>
+    <t>Interstitial</t>
   </si>
 </sst>
 </file>
@@ -81,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,77 +127,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +181,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -209,7 +198,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,25 +241,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,25 +266,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,151 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,65 +465,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,148 +498,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1047,15 +1059,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5480769230769" style="2" customWidth="1"/>
@@ -1148,6 +1160,26 @@
         <v>18</v>
       </c>
       <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>effectValue</t>
-  </si>
-  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ID</t>
@@ -73,19 +64,28 @@
     <t>复活</t>
   </si>
   <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>revive_interstitial</t>
-  </si>
-  <si>
-    <t>复活插屏</t>
+    <t>daily_sign</t>
+  </si>
+  <si>
+    <t>签到双倍奖励</t>
   </si>
   <si>
     <t>d08a98e6dbce462d843570b4fb350536</t>
   </si>
   <si>
     <t>Interstitial</t>
+  </si>
+  <si>
+    <t>secret_reward</t>
+  </si>
+  <si>
+    <t>结束神秘大奖</t>
+  </si>
+  <si>
+    <t>weapon_trial</t>
+  </si>
+  <si>
+    <t>武器满级试用</t>
   </si>
 </sst>
 </file>
@@ -95,8 +95,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,9 +127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,36 +136,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,60 +176,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +211,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,31 +266,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,25 +374,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,121 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,32 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,11 +502,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,162 +543,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1059,23 +1059,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.5480769230769" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.4903846153846" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1088,99 +1086,103 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="26415" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -52,7 +52,7 @@
     <t>default for init plugins</t>
   </si>
   <si>
-    <t>2decb021393841eeb7c6b59c8bb983d7</t>
+    <t>fc614c6ba5174283bd45ab1741b3448c</t>
   </si>
   <si>
     <t>RewardedVideo</t>
@@ -64,28 +64,43 @@
     <t>复活</t>
   </si>
   <si>
+    <t>triple_reward</t>
+  </si>
+  <si>
+    <t>结算三倍奖励</t>
+  </si>
+  <si>
+    <t>46fd6257364441f8b202ea80b2b68975</t>
+  </si>
+  <si>
+    <t>secret_reward</t>
+  </si>
+  <si>
+    <t>结算神秘大奖</t>
+  </si>
+  <si>
+    <t>e344ad66951849e484c81ccda88b83c4</t>
+  </si>
+  <si>
     <t>daily_sign</t>
   </si>
   <si>
     <t>签到双倍奖励</t>
   </si>
   <si>
-    <t>d08a98e6dbce462d843570b4fb350536</t>
+    <t>fc8739cdaac24b1fa934984f779bd3cb</t>
   </si>
   <si>
     <t>Interstitial</t>
   </si>
   <si>
-    <t>secret_reward</t>
-  </si>
-  <si>
-    <t>结束神秘大奖</t>
-  </si>
-  <si>
     <t>weapon_trial</t>
   </si>
   <si>
     <t>武器满级试用</t>
+  </si>
+  <si>
+    <t>77978e6fc26f4a68b3e9dcab8ccdc334</t>
   </si>
 </sst>
 </file>
@@ -93,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,32 +128,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,14 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -168,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,76 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,63 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,10 +492,32 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -557,151 +537,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -714,54 +729,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1057,17 +1072,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
@@ -1154,24 +1169,24 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="15" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1179,10 +1194,24 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1201,7 +1230,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1209,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1217,7 +1246,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="11730"/>
+    <workbookView windowWidth="28720" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>id</t>
   </si>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,6 +128,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -136,75 +143,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +205,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -226,17 +221,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,30 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,50 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,8 +502,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,161 +543,180 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,54 +729,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1072,17 +1072,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
@@ -1222,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1230,7 +1230,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1238,7 +1238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1246,7 +1246,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="13200"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,13 @@
     <t>type</t>
   </si>
   <si>
+    <t>preloadPriority</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>ID</t>
@@ -46,6 +52,10 @@
 </t>
   </si>
   <si>
+    <t>预加载优先级，大-&gt;小
+&lt;=0 不加载</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -88,10 +98,7 @@
     <t>签到双倍奖励</t>
   </si>
   <si>
-    <t>fc8739cdaac24b1fa934984f779bd3cb</t>
-  </si>
-  <si>
-    <t>Interstitial</t>
+    <t>6de74c1fa93c421d8331be84699ae17d</t>
   </si>
   <si>
     <t>weapon_trial</t>
@@ -100,7 +107,25 @@
     <t>武器满级试用</t>
   </si>
   <si>
-    <t>77978e6fc26f4a68b3e9dcab8ccdc334</t>
+    <t>c6ac1beccebb4e5f88968c57b79c20b1</t>
+  </si>
+  <si>
+    <t>book_reward</t>
+  </si>
+  <si>
+    <t>图鉴领奖</t>
+  </si>
+  <si>
+    <t>5cb2f12949f44761b952da71c85a27ca</t>
+  </si>
+  <si>
+    <t>idle_reward</t>
+  </si>
+  <si>
+    <t>挂机奖励</t>
+  </si>
+  <si>
+    <t>2f55a009910345e79cd32ec1fcf56776</t>
   </si>
 </sst>
 </file>
@@ -108,12 +133,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +153,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -137,6 +168,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -150,10 +196,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,9 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,76 +251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +274,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,61 +312,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +511,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,28 +565,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -557,175 +603,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,21 +1106,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="17.2307692307692" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1101,117 +1134,178 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="8" ht="15" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
         <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="26055" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -83,7 +83,7 @@
     <t>46fd6257364441f8b202ea80b2b68975</t>
   </si>
   <si>
-    <t>secret_reward</t>
+    <t>mystical_reward</t>
   </si>
   <si>
     <t>结算神秘大奖</t>
@@ -119,7 +119,7 @@
     <t>5cb2f12949f44761b952da71c85a27ca</t>
   </si>
   <si>
-    <t>idle_reward</t>
+    <t>offline_reward</t>
   </si>
   <si>
     <t>挂机奖励</t>
@@ -133,9 +133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -160,37 +160,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,27 +181,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,11 +210,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -259,6 +257,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -268,36 +281,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,169 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,39 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,17 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,6 +541,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,151 +568,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -761,54 +761,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1104,20 +1104,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.2307692307692" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.2333333333333" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1316,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1324,7 +1324,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1340,7 +1340,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="11730"/>
+    <workbookView windowWidth="27045" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,8 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +196,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -204,7 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,87 +272,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,24 +508,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,28 +550,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +574,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1237,7 +1237,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1271,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>preloadPriority</t>
+    <t>priority</t>
   </si>
   <si>
     <t>string</t>
@@ -52,14 +52,14 @@
 </t>
   </si>
   <si>
-    <t>预加载优先级，大-&gt;小
-&lt;=0 不加载</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>default for init plugins</t>
+    <t>播放优先级
+0 不加载</t>
+  </si>
+  <si>
+    <t>high_ecpm</t>
+  </si>
+  <si>
+    <t>高收益视频</t>
   </si>
   <si>
     <t>fc614c6ba5174283bd45ab1741b3448c</t>
@@ -68,64 +68,22 @@
     <t>RewardedVideo</t>
   </si>
   <si>
-    <t>revive</t>
-  </si>
-  <si>
-    <t>复活</t>
-  </si>
-  <si>
-    <t>triple_reward</t>
-  </si>
-  <si>
-    <t>结算三倍奖励</t>
+    <t>normal_ecpm</t>
+  </si>
+  <si>
+    <t>正常收益视频</t>
   </si>
   <si>
     <t>46fd6257364441f8b202ea80b2b68975</t>
   </si>
   <si>
-    <t>mystical_reward</t>
-  </si>
-  <si>
-    <t>结算神秘大奖</t>
+    <t>low_ecpm</t>
+  </si>
+  <si>
+    <t>低收益视频</t>
   </si>
   <si>
     <t>e344ad66951849e484c81ccda88b83c4</t>
-  </si>
-  <si>
-    <t>daily_sign</t>
-  </si>
-  <si>
-    <t>签到双倍奖励</t>
-  </si>
-  <si>
-    <t>6de74c1fa93c421d8331be84699ae17d</t>
-  </si>
-  <si>
-    <t>weapon_trial</t>
-  </si>
-  <si>
-    <t>武器满级试用</t>
-  </si>
-  <si>
-    <t>c6ac1beccebb4e5f88968c57b79c20b1</t>
-  </si>
-  <si>
-    <t>book_reward</t>
-  </si>
-  <si>
-    <t>图鉴领奖</t>
-  </si>
-  <si>
-    <t>5cb2f12949f44761b952da71c85a27ca</t>
-  </si>
-  <si>
-    <t>offline_reward</t>
-  </si>
-  <si>
-    <t>挂机奖励</t>
-  </si>
-  <si>
-    <t>2f55a009910345e79cd32ec1fcf56776</t>
   </si>
 </sst>
 </file>
@@ -133,12 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,22 +111,84 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,14 +210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,99 +225,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,37 +458,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,17 +491,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,16 +516,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,143 +573,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1106,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
@@ -1186,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1197,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1208,104 +1159,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableAds.xlsx
+++ b/DestroyViruses/Assets/Tables/TableAds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27045" windowHeight="12150"/>
+    <workbookView windowWidth="28720" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>id</t>
   </si>
@@ -36,19 +36,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
+    <t>int</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>程序用，副武器类型</t>
+    <t>描述</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t xml:space="preserve">类型， Banner, Interstitial, RewardedVideo
+    <t xml:space="preserve">类型： 
+Banner
+Interstitial
+RewardedVideo
 </t>
   </si>
   <si>
@@ -56,6 +59,30 @@
 0 不加载</t>
   </si>
   <si>
+    <t>low_ecpm</t>
+  </si>
+  <si>
+    <t>低收益视频</t>
+  </si>
+  <si>
+    <t>fc8739cdaac24b1fa934984f779bd3cb</t>
+  </si>
+  <si>
+    <t>Interstitial</t>
+  </si>
+  <si>
+    <t>normal_ecpm</t>
+  </si>
+  <si>
+    <t>正常收益视频</t>
+  </si>
+  <si>
+    <t>46fd6257364441f8b202ea80b2b68975</t>
+  </si>
+  <si>
+    <t>RewardedVideo</t>
+  </si>
+  <si>
     <t>high_ecpm</t>
   </si>
   <si>
@@ -63,27 +90,6 @@
   </si>
   <si>
     <t>fc614c6ba5174283bd45ab1741b3448c</t>
-  </si>
-  <si>
-    <t>RewardedVideo</t>
-  </si>
-  <si>
-    <t>normal_ecpm</t>
-  </si>
-  <si>
-    <t>正常收益视频</t>
-  </si>
-  <si>
-    <t>46fd6257364441f8b202ea80b2b68975</t>
-  </si>
-  <si>
-    <t>low_ecpm</t>
-  </si>
-  <si>
-    <t>低收益视频</t>
-  </si>
-  <si>
-    <t>e344ad66951849e484c81ccda88b83c4</t>
   </si>
 </sst>
 </file>
@@ -91,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,13 +118,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -126,11 +184,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,30 +223,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,77 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,25 +270,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,157 +354,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,30 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,6 +493,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,148 +564,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -712,54 +718,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1055,20 +1061,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.3916666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.3942307692308" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="45" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.2333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.2307692307692" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1106,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="90" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1151,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1159,19 +1165,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1190,7 +1196,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1198,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1206,7 +1212,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
